--- a/data/trans_orig/P14C23_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C23_2015-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F08BEA-13BD-4735-B392-23EA003C32F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFD02A6-6B46-4DA0-A77F-A21E55E71BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FB83E8FA-F03B-4783-8B51-121246D05A36}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E1D09F34-799B-4ED7-8B0E-A6CA7C9F6638}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -89,7 +89,7 @@
     <t>82,39%</t>
   </si>
   <si>
-    <t>50,18%</t>
+    <t>52,26%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,7 +107,7 @@
     <t>17,61%</t>
   </si>
   <si>
-    <t>49,82%</t>
+    <t>47,74%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,373 +125,373 @@
     <t>80,1%</t>
   </si>
   <si>
-    <t>43,36%</t>
+    <t>41,76%</t>
   </si>
   <si>
     <t>55,77%</t>
   </si>
   <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>23,93%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>65,64%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>59,48%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -906,7 +906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186BC153-91FC-48C4-AA32-8D58F2B5D76D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523369EE-3F8E-4371-9C55-02921C65CFC9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1732,10 +1732,10 @@
         <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,13 +1750,13 @@
         <v>2873</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1765,13 +1765,13 @@
         <v>4494</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -1780,13 +1780,13 @@
         <v>7367</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,7 +1842,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1854,13 +1854,13 @@
         <v>13725</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -1869,13 +1869,13 @@
         <v>59433</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>65</v>
@@ -1884,13 +1884,13 @@
         <v>73158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1905,13 +1905,13 @@
         <v>9060</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -1920,13 +1920,13 @@
         <v>23395</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M21" s="7">
         <v>29</v>
@@ -1935,13 +1935,13 @@
         <v>32456</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1956,13 @@
         <v>1175</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -1971,13 +1971,13 @@
         <v>5115</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -1986,13 +1986,13 @@
         <v>6291</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,13 +2060,13 @@
         <v>42888</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>137</v>
@@ -2075,13 +2075,13 @@
         <v>153577</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>179</v>

--- a/data/trans_orig/P14C23_2015-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C23_2015-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFD02A6-6B46-4DA0-A77F-A21E55E71BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{019C747F-BD91-43C4-8AE2-3CFB5226E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E1D09F34-799B-4ED7-8B0E-A6CA7C9F6638}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3FC97C44-184E-434A-AB6F-1609A05ABA9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="153">
-  <si>
-    <t>Población según el tiempo de diagnóstico del trastornos depresivos en 2015 (Tasa respuesta: 4,16%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="154">
+  <si>
+    <t>Población según el tiempo de diagnóstico del trastornos depresivos en 2016 (Tasa respuesta: 4,16%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -89,7 +89,7 @@
     <t>82,39%</t>
   </si>
   <si>
-    <t>52,26%</t>
+    <t>47,6%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,7 +107,7 @@
     <t>17,61%</t>
   </si>
   <si>
-    <t>47,74%</t>
+    <t>52,4%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -119,220 +119,220 @@
     <t>13,49%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>80,1%</t>
   </si>
   <si>
-    <t>41,76%</t>
+    <t>47,95%</t>
   </si>
   <si>
     <t>55,77%</t>
   </si>
   <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
   </si>
   <si>
     <t>60,65%</t>
   </si>
   <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>58,24%</t>
+    <t>52,05%</t>
   </si>
   <si>
     <t>34,14%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>31,29%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>10,09%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>78,35%</t>
   </si>
   <si>
-    <t>45,9%</t>
+    <t>38,47%</t>
   </si>
   <si>
     <t>68,99%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
   </si>
   <si>
     <t>70,38%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
   </si>
   <si>
     <t>26,88%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>54,1%</t>
+    <t>61,53%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>14,36%</t>
+    <t>13,56%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>56,38%</t>
   </si>
   <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
   </si>
   <si>
     <t>59,89%</t>
   </si>
   <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>31,71%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
   </si>
   <si>
     <t>26,91%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>46,71%</t>
+    <t>49,44%</t>
   </si>
   <si>
     <t>11,91%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
   </si>
   <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -341,28 +341,28 @@
     <t>57,28%</t>
   </si>
   <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
   </si>
   <si>
     <t>67,58%</t>
   </si>
   <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>65,38%</t>
   </si>
   <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>37,81%</t>
@@ -371,16 +371,16 @@
     <t>20,19%</t>
   </si>
   <si>
-    <t>61,05%</t>
+    <t>57,6%</t>
   </si>
   <si>
     <t>26,6%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
   </si>
   <si>
     <t>29,0%</t>
@@ -389,13 +389,13 @@
     <t>20,89%</t>
   </si>
   <si>
-    <t>38,86%</t>
+    <t>39,79%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>23,93%</t>
+    <t>23,39%</t>
   </si>
   <si>
     <t>5,82%</t>
@@ -404,94 +404,97 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>12,4%</t>
+    <t>13,54%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>65,64%</t>
   </si>
   <si>
-    <t>59,48%</t>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -906,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523369EE-3F8E-4371-9C55-02921C65CFC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D150D4D0-0DD5-476B-ACEA-3AC74FC3F505}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2081,7 +2084,7 @@
         <v>130</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>179</v>
@@ -2090,13 +2093,13 @@
         <v>196465</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,13 +2114,13 @@
         <v>16536</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -2126,13 +2129,13 @@
         <v>64454</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -2141,13 +2144,13 @@
         <v>80990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,13 +2165,13 @@
         <v>6286</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -2177,13 +2180,13 @@
         <v>15952</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -2192,13 +2195,13 @@
         <v>22239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,7 +2257,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
